--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7F77BF-3B8A-4505-9B09-E20AA234041C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E5B456-0172-4BF1-81C1-2A94ECFB9068}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4F366372-7049-428F-9890-F7F6B235BD5A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>id_requisito</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Tabela do projeto no MySQL</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Bruno e Paulo</t>
+  </si>
+  <si>
+    <t>Emilly, João e Lucas</t>
+  </si>
+  <si>
+    <t>Pontos</t>
   </si>
 </sst>
 </file>
@@ -269,9 +287,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -312,11 +329,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA4274-2571-4CE4-98DD-061BF4CC3A59}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,462 +685,544 @@
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="G1" s="18"/>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="24">
+        <f>C4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="24">
+        <f>C8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="G9" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="22">
+        <f>SUM(C12:C15)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="12">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="24">
+        <f>C17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="C23" s="10">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="13">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="15">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="12">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="11">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>21</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G23" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
